--- a/Index.xlsx
+++ b/Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blink/github/4410PythonNotebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348347C6-69A1-C04B-98B2-EE9DFA49B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFCA69B-A27F-3443-B6D5-9522E65865A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="600" windowWidth="28040" windowHeight="16940" xr2:uid="{34DEDB22-049B-9F43-B476-B416D93AA7A6}"/>
+    <workbookView xWindow="760" yWindow="600" windowWidth="28040" windowHeight="16940" xr2:uid="{34DEDB22-049B-9F43-B476-B416D93AA7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Workbook</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>CurveSmoothAndInterpolate.ipynb</t>
+  </si>
+  <si>
+    <t>23-Figure4Paper_Hammett_Acid_Rate.ipynb</t>
+  </si>
+  <si>
+    <t>Contour plot</t>
   </si>
 </sst>
 </file>
@@ -272,10 +278,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -593,425 +598,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9B5CEF-1EAB-7343-9C9D-B5550210F807}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="40.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="95.1640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="95.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>16</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>16</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>17</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>21</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>23</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>23</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>23</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>10</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>10</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>10</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>10</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Index.xlsx
+++ b/Index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blink/github/4410PythonNotebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFCA69B-A27F-3443-B6D5-9522E65865A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21F3BFB-B8E7-F044-BBB0-E4A196CD520C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="600" windowWidth="28040" windowHeight="16940" xr2:uid="{34DEDB22-049B-9F43-B476-B416D93AA7A6}"/>
+    <workbookView xWindow="7440" yWindow="760" windowWidth="28040" windowHeight="16940" xr2:uid="{34DEDB22-049B-9F43-B476-B416D93AA7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9B5CEF-1EAB-7343-9C9D-B5550210F807}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,7 +964,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
